--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C294A841-5011-4881-88D5-B2B826154178}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -20,12 +26,12 @@
     <sheet name="crop_yield_off_farm" sheetId="41" r:id="rId11"/>
     <sheet name="harvest_index" sheetId="43" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="197">
   <si>
     <t>par</t>
   </si>
@@ -610,12 +616,18 @@
   </si>
   <si>
     <t>Source: FAO (2018)</t>
+  </si>
+  <si>
+    <t>NDF</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -746,6 +758,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1006,14 +1021,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1308,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1382,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1438,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1493,7 +1508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2648,7 +2663,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="str">
         <f t="shared" si="4"/>
         <v>youngm_imp</v>
@@ -2693,7 +2708,7 @@
       <c r="N28" s="17"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="str">
         <f t="shared" si="4"/>
         <v>youngf_imp</v>
@@ -4064,7 +4079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4204,11 +4219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4686,26 +4701,84 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.442</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="G2" r:id="rId5"/>
-    <hyperlink ref="I2" r:id="rId6"/>
-    <hyperlink ref="J2" r:id="rId7"/>
-    <hyperlink ref="K2" r:id="rId8"/>
-    <hyperlink ref="O2" r:id="rId9"/>
-    <hyperlink ref="M2" r:id="rId10"/>
-    <hyperlink ref="B2" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="K2" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="O2" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="M2" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6178,7 +6251,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="7"/>
         <v>m03</v>
@@ -6698,7 +6771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7268,7 +7341,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -9265,10 +9338,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -9481,11 +9554,11 @@
         <v>74</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B13" si="0">G11*1.2</f>
+        <f t="shared" ref="B11" si="0">G11*1.2</f>
         <v>162672</v>
       </c>
       <c r="C11" s="24">
-        <f t="shared" ref="C11:C13" si="1">B11*0.9</f>
+        <f t="shared" ref="C11:C12" si="1">B11*0.9</f>
         <v>146404.80000000002</v>
       </c>
       <c r="G11">
@@ -9774,7 +9847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10018,7 +10091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C294A841-5011-4881-88D5-B2B826154178}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D17C28A6-F462-43B2-A54E-84D57C38F5CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -4223,7 +4223,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4739,7 +4739,7 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="M11" s="10">
-        <v>0.39400000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="N11" s="10">
         <v>0.53800000000000003</v>

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D17C28A6-F462-43B2-A54E-84D57C38F5CD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3023572E-BF86-4F6A-A010-21E62B4E910C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="196">
   <si>
     <t>par</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>https://www.feedipedia.org/node/732</t>
-  </si>
-  <si>
-    <t>https://www.feedipedia.org/node/550</t>
   </si>
   <si>
     <t>general expenses per head of livestcok</t>
@@ -1065,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1085,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1105,7 +1102,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1125,7 +1122,7 @@
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1145,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1162,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="D9" s="24">
         <v>0</v>
@@ -1185,7 +1182,7 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1205,7 +1202,7 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1222,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1242,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1262,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
         <v>175</v>
-      </c>
-      <c r="C14" t="s">
-        <v>176</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1282,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -1302,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1335,10 +1332,10 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
       <c r="B1" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -1358,7 +1355,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="24">
         <v>3000</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>3000</v>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>3000</v>
@@ -1408,16 +1405,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
         <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1428,7 +1425,7 @@
         <v>1.0348999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1464,22 +1461,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>189</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1512,10 +1509,10 @@
   <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3236,7 +3233,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D47" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G47" s="24">
         <f>12/G50</f>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D48" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="24">
         <f>12/G51</f>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="50" spans="4:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G50" s="17">
         <v>24</v>
@@ -3296,7 +3293,7 @@
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" s="17">
         <v>30</v>
@@ -3311,7 +3308,7 @@
     </row>
     <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G52" s="17">
         <v>320</v>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G53" s="17">
         <v>380</v>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D54" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G54" s="17">
         <v>320</v>
@@ -3356,7 +3353,7 @@
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D55" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G55" s="17">
         <v>380</v>
@@ -4090,13 +4087,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,7 +4108,7 @@
         <v>1.5</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4220,10 +4217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4231,17 +4228,17 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>40</v>
@@ -4263,20 +4260,17 @@
         <v>120</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4299,28 +4293,28 @@
         <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>132</v>
@@ -4329,13 +4323,10 @@
         <v>133</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4370,27 +4361,23 @@
         <v>11.8</v>
       </c>
       <c r="J4" s="7">
-        <f>0.784*J5</f>
+        <v>12</v>
+      </c>
+      <c r="K4" s="7">
+        <f>0.784*K5</f>
         <v>15.68</v>
       </c>
-      <c r="K4" s="7">
-        <v>12</v>
-      </c>
       <c r="L4" s="7">
-        <f>0.784*L5</f>
-        <v>15.68</v>
+        <v>9.6</v>
       </c>
       <c r="M4" s="7">
         <v>9.6</v>
       </c>
       <c r="N4" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="O4" s="7">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4419,28 +4406,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="J5" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="K5" s="7">
         <v>20</v>
       </c>
-      <c r="K5" s="7">
-        <v>18.5</v>
-      </c>
       <c r="L5" s="7">
-        <v>20</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M5" s="7">
         <v>18.899999999999999</v>
       </c>
       <c r="N5" s="7">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="O5" s="7">
         <v>17.399999999999999</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -4469,98 +4453,91 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="J6" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="K6" s="5">
         <v>0.47299999999999998</v>
       </c>
-      <c r="K6" s="5">
-        <v>0.11899999999999999</v>
-      </c>
       <c r="L6" s="5">
-        <v>0.47299999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M6" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N6" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O6" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
       <c r="V6" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="10">
-        <f t="shared" ref="B7:O7" si="1">B6*$W$7</f>
+        <f>B6*$V$7</f>
         <v>8.6399999999999991E-2</v>
       </c>
       <c r="C7" s="10">
-        <f t="shared" si="1"/>
+        <f>C6*$V$7</f>
         <v>0.14399999999999999</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="1"/>
+        <f>D6*$V$7</f>
         <v>0.11304</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" si="1"/>
+        <f>E6*$V$7</f>
         <v>0.126</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="1"/>
+        <f>F6*$V$7</f>
         <v>0.17856</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="1"/>
+        <f>G6*$V$7</f>
         <v>5.9040000000000002E-2</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="1"/>
+        <f>H6*$V$7</f>
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="1"/>
+        <f>I6*$V$7</f>
         <v>0.23327999999999999</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="1"/>
+        <f>J6*$V$7</f>
+        <v>8.5679999999999992E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7" si="1">K6*$V$7</f>
         <v>0.34055999999999997</v>
       </c>
-      <c r="K7" s="10">
-        <f t="shared" si="1"/>
-        <v>8.5679999999999992E-2</v>
-      </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7" si="2">L6*$W$7</f>
-        <v>0.34055999999999997</v>
+        <f>L6*$V$7</f>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="1"/>
+        <f>M6*$V$7</f>
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="1"/>
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
+        <f>N6*$V$7</f>
         <v>6.9839999999999999E-2</v>
       </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
       <c r="V7" s="6">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4589,25 +4566,22 @@
         <v>0.89</v>
       </c>
       <c r="J8" s="22">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K8" s="22">
         <v>0.90900000000000003</v>
       </c>
-      <c r="K8" s="22">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0.90900000000000003</v>
+      <c r="L8" s="10">
+        <v>0.3</v>
       </c>
       <c r="M8" s="10">
         <v>0.3</v>
       </c>
       <c r="N8" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="10">
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>119</v>
       </c>
@@ -4636,27 +4610,24 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="J9" s="10">
+        <v>0.748</v>
+      </c>
+      <c r="K9" s="10">
         <v>0.78200000000000003</v>
       </c>
-      <c r="K9" s="10">
-        <v>0.748</v>
-      </c>
       <c r="L9" s="10">
-        <v>0.78200000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="M9" s="10">
         <v>0.6</v>
       </c>
       <c r="N9" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O9" s="10">
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="10">
         <v>0.35899999999999999</v>
@@ -4683,27 +4654,24 @@
         <v>0.32</v>
       </c>
       <c r="J10" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K10" s="10">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K10" s="10">
-        <v>0.14499999999999999</v>
-      </c>
       <c r="L10" s="10">
-        <v>0.17799999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="M10" s="10">
-        <v>0.39400000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="N10" s="10">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="O10" s="10">
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="10">
         <v>0.65500000000000003</v>
@@ -4730,33 +4698,30 @@
         <v>0.45</v>
       </c>
       <c r="J11" s="10">
+        <v>0.442</v>
+      </c>
+      <c r="K11" s="10">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K11" s="10">
-        <v>0.442</v>
-      </c>
       <c r="L11" s="10">
-        <v>0.17799999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="M11" s="10">
-        <v>0.75</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="N11" s="10">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="O11" s="10">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L12" t="s">
-        <v>196</v>
-      </c>
-      <c r="N12" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="K12" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4767,11 +4732,10 @@
     <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
     <hyperlink ref="G2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
     <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="K2" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="O2" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="M2" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="N2" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="L2" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4836,7 +4800,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>89</v>
@@ -5039,7 +5003,7 @@
         <v>9.8928571428571423</v>
       </c>
       <c r="R6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T6">
         <v>3.4624999999999999</v>
@@ -6815,7 +6779,7 @@
         <v>5600.0000000000009</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -6836,7 +6800,7 @@
         <v>5600.0000000000009</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -6875,7 +6839,7 @@
         <v>44000</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -6896,7 +6860,7 @@
         <v>56000</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -6968,10 +6932,10 @@
         <v>44000</v>
       </c>
       <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
         <v>130</v>
-      </c>
-      <c r="I10" t="s">
-        <v>131</v>
       </c>
       <c r="N10" t="s">
         <v>55</v>
@@ -7479,7 +7443,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
@@ -7497,7 +7461,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -7515,7 +7479,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
@@ -7533,7 +7497,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
         <v>78</v>
@@ -7551,7 +7515,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
@@ -7569,7 +7533,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -7587,7 +7551,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>75</v>
@@ -7604,7 +7568,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
@@ -7621,7 +7585,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
@@ -7638,7 +7602,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
@@ -7655,7 +7619,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
@@ -7672,7 +7636,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
@@ -7689,7 +7653,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
         <v>80</v>
@@ -7706,7 +7670,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
         <v>81</v>
@@ -7723,7 +7687,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
@@ -7740,7 +7704,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
         <v>78</v>
@@ -7757,7 +7721,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>70</v>
@@ -7774,7 +7738,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -7791,7 +7755,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
         <v>75</v>
@@ -7808,7 +7772,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
         <v>76</v>
@@ -7825,7 +7789,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
@@ -7842,7 +7806,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
@@ -7859,7 +7823,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
@@ -7876,7 +7840,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
         <v>72</v>
@@ -7893,7 +7857,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
@@ -7910,7 +7874,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
         <v>81</v>
@@ -7927,7 +7891,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -7944,7 +7908,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
         <v>78</v>
@@ -7961,7 +7925,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -7978,7 +7942,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -7995,7 +7959,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -8012,7 +7976,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -8029,7 +7993,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
@@ -8046,7 +8010,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -8063,7 +8027,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -8080,7 +8044,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -8097,7 +8061,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
@@ -8115,7 +8079,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
@@ -8133,7 +8097,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
@@ -8151,7 +8115,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -8169,7 +8133,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
         <v>70</v>
@@ -8187,7 +8151,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -8205,7 +8169,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
@@ -8222,7 +8186,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" t="s">
         <v>76</v>
@@ -8239,7 +8203,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
         <v>74</v>
@@ -8256,7 +8220,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
         <v>73</v>
@@ -8273,7 +8237,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
@@ -8290,7 +8254,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
         <v>72</v>
@@ -8307,7 +8271,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
@@ -8324,7 +8288,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
         <v>81</v>
@@ -8341,7 +8305,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
         <v>79</v>
@@ -8358,7 +8322,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B89" t="s">
         <v>78</v>
@@ -8375,7 +8339,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s">
         <v>70</v>
@@ -8392,7 +8356,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -8409,7 +8373,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
         <v>75</v>
@@ -8426,7 +8390,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
         <v>76</v>
@@ -8443,7 +8407,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
         <v>74</v>
@@ -8460,7 +8424,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
@@ -8477,7 +8441,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
@@ -8494,7 +8458,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
         <v>72</v>
@@ -8511,7 +8475,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
         <v>80</v>
@@ -8528,7 +8492,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
         <v>81</v>
@@ -8545,7 +8509,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
         <v>79</v>
@@ -8562,7 +8526,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
         <v>78</v>
@@ -8579,7 +8543,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
         <v>70</v>
@@ -8596,7 +8560,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
         <v>77</v>
@@ -8613,7 +8577,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
@@ -8630,7 +8594,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -8647,7 +8611,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
         <v>74</v>
@@ -8664,7 +8628,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s">
         <v>73</v>
@@ -8681,7 +8645,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
@@ -8698,7 +8662,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
         <v>72</v>
@@ -8715,7 +8679,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
         <v>80</v>
@@ -8733,7 +8697,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
         <v>81</v>
@@ -8751,7 +8715,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -8769,7 +8733,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
         <v>78</v>
@@ -8787,7 +8751,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
         <v>70</v>
@@ -8805,7 +8769,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -8823,7 +8787,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
         <v>75</v>
@@ -8840,7 +8804,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
         <v>76</v>
@@ -8857,7 +8821,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
         <v>74</v>
@@ -8874,7 +8838,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
         <v>73</v>
@@ -8891,7 +8855,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s">
         <v>71</v>
@@ -8908,7 +8872,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B121" t="s">
         <v>72</v>
@@ -8925,7 +8889,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
         <v>80</v>
@@ -8942,7 +8906,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
         <v>81</v>
@@ -8959,7 +8923,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
         <v>79</v>
@@ -8976,7 +8940,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
         <v>78</v>
@@ -8993,7 +8957,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
         <v>70</v>
@@ -9010,7 +8974,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
         <v>77</v>
@@ -9027,7 +8991,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
         <v>75</v>
@@ -9044,7 +9008,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
         <v>76</v>
@@ -9061,7 +9025,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
@@ -9078,7 +9042,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s">
         <v>73</v>
@@ -9095,7 +9059,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
         <v>71</v>
@@ -9112,7 +9076,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
         <v>72</v>
@@ -9129,7 +9093,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
         <v>80</v>
@@ -9146,7 +9110,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B135" t="s">
         <v>81</v>
@@ -9163,7 +9127,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
         <v>79</v>
@@ -9180,7 +9144,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
         <v>78</v>
@@ -9197,7 +9161,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B138" t="s">
         <v>70</v>
@@ -9214,7 +9178,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
         <v>77</v>
@@ -9231,7 +9195,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B140" t="s">
         <v>75</v>
@@ -9248,7 +9212,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B141" t="s">
         <v>76</v>
@@ -9265,7 +9229,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B142" t="s">
         <v>74</v>
@@ -9282,7 +9246,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" t="s">
         <v>73</v>
@@ -9299,7 +9263,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
         <v>71</v>
@@ -9316,7 +9280,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B145" t="s">
         <v>72</v>
@@ -9409,10 +9373,10 @@
         <v>117</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -9431,20 +9395,20 @@
         <v>118</v>
       </c>
       <c r="O4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>292501</v>
       </c>
       <c r="R4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S4">
         <f>Q4/1000</f>
         <v>292.50099999999998</v>
       </c>
       <c r="T4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U4">
         <v>2015</v>
@@ -9463,20 +9427,20 @@
         <v>122004</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>315107</v>
       </c>
       <c r="R5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S5">
         <f>Q5/1000</f>
         <v>315.10700000000003</v>
       </c>
       <c r="T5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U5">
         <v>2015</v>
@@ -9799,7 +9763,7 @@
         <v>104</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -10140,7 +10104,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -10181,7 +10145,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -10222,7 +10186,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -10263,7 +10227,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -10304,7 +10268,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10345,7 +10309,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10386,7 +10350,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>2</v>

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3023572E-BF86-4F6A-A010-21E62B4E910C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{731E89EB-AC21-4BFC-BBF6-85F091885150}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="196">
   <si>
     <t>par</t>
   </si>
@@ -1395,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,17 +1430,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>0.57369999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4">
         <v>1.4554</v>
       </c>
     </row>
@@ -4219,7 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C294A841-5011-4881-88D5-B2B826154178}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="898" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -627,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1021,24 +1015,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,14 +1317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24"/>
@@ -1397,14 +1391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1453,14 +1447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1508,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1518,15 +1512,15 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="24" customWidth="1"/>
-    <col min="2" max="11" width="8.88671875" style="24"/>
-    <col min="12" max="12" width="10.44140625" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="14.85546875" style="24" customWidth="1"/>
+    <col min="2" max="11" width="8.85546875" style="24"/>
+    <col min="12" max="12" width="10.42578125" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1" s="24" t="s">
         <v>57</v>
       </c>
@@ -1561,7 +1555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>41</v>
       </c>
@@ -1605,7 +1599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>70</v>
       </c>
@@ -1647,7 +1641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>81</v>
       </c>
@@ -1689,7 +1683,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
@@ -1729,7 +1723,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>78</v>
       </c>
@@ -1768,7 +1762,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>79</v>
       </c>
@@ -1811,7 +1805,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>77</v>
       </c>
@@ -1845,7 +1839,7 @@
       <c r="O8" s="2"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f t="shared" ref="A9:A20" si="1">A3</f>
         <v>adultf_loc</v>
@@ -1888,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>youngm_loc</v>
@@ -1939,7 +1933,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>youngf_loc</v>
@@ -1991,7 +1985,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>weanerm_loc</v>
@@ -2034,7 +2028,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>weanerf_loc</v>
@@ -2078,7 +2072,7 @@
       <c r="O13" s="2"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>reprod_loc</v>
@@ -2112,7 +2106,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>adultf_loc</v>
@@ -2162,7 +2156,7 @@
         <v>5.081967213114754</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>youngm_loc</v>
@@ -2214,7 +2208,7 @@
         <v>7.2131147540983607</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>youngf_loc</v>
@@ -2260,7 +2254,7 @@
       <c r="N17" s="17"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>weanerm_loc</v>
@@ -2303,7 +2297,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>weanerf_loc</v>
@@ -2346,7 +2340,7 @@
       <c r="N19" s="17"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>reprod_loc</v>
@@ -2385,7 +2379,7 @@
       <c r="N20" s="17"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>71</v>
       </c>
@@ -2426,7 +2420,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>76</v>
       </c>
@@ -2467,7 +2461,7 @@
       <c r="N22" s="17"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>75</v>
       </c>
@@ -2508,7 +2502,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>73</v>
       </c>
@@ -2548,7 +2542,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>74</v>
       </c>
@@ -2588,7 +2582,7 @@
       <c r="N25" s="17"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>72</v>
       </c>
@@ -2621,7 +2615,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="str">
         <f t="shared" ref="A27:A38" si="4">A21</f>
         <v>adultf_imp</v>
@@ -2663,7 +2657,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="str">
         <f t="shared" si="4"/>
         <v>youngm_imp</v>
@@ -2708,7 +2702,7 @@
       <c r="N28" s="17"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="str">
         <f t="shared" si="4"/>
         <v>youngf_imp</v>
@@ -2753,7 +2747,7 @@
       <c r="N29" s="17"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="str">
         <f t="shared" si="4"/>
         <v>weanerm_imp</v>
@@ -2795,7 +2789,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="str">
         <f t="shared" si="4"/>
         <v>weanerf_imp</v>
@@ -2837,7 +2831,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="str">
         <f t="shared" si="4"/>
         <v>reprod_imp</v>
@@ -2870,7 +2864,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="str">
         <f t="shared" si="4"/>
         <v>adultf_imp</v>
@@ -2912,7 +2906,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="str">
         <f t="shared" si="4"/>
         <v>youngm_imp</v>
@@ -2957,7 +2951,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="str">
         <f t="shared" si="4"/>
         <v>youngf_imp</v>
@@ -3002,7 +2996,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="str">
         <f t="shared" si="4"/>
         <v>weanerm_imp</v>
@@ -3044,7 +3038,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="str">
         <f t="shared" si="4"/>
         <v>weanerf_imp</v>
@@ -3086,7 +3080,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="str">
         <f t="shared" si="4"/>
         <v>reprod_imp</v>
@@ -3124,7 +3118,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G39" s="12"/>
       <c r="H39" s="14"/>
       <c r="I39" s="12"/>
@@ -3134,7 +3128,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G40" s="12"/>
       <c r="H40" s="14"/>
       <c r="I40" s="12"/>
@@ -3144,7 +3138,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G41" s="12"/>
       <c r="H41" s="14"/>
       <c r="I41" s="12"/>
@@ -3154,7 +3148,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G42" s="12"/>
       <c r="H42" s="14"/>
       <c r="I42" s="12"/>
@@ -3164,7 +3158,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D43" s="24" t="s">
         <v>82</v>
       </c>
@@ -3177,7 +3171,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D44" s="24" t="s">
         <v>109</v>
       </c>
@@ -3196,7 +3190,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D45" s="24" t="s">
         <v>110</v>
       </c>
@@ -3215,7 +3209,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D46" s="24" t="s">
         <v>111</v>
       </c>
@@ -3234,7 +3228,7 @@
       <c r="N46" s="12"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D47" s="24" t="s">
         <v>184</v>
       </c>
@@ -3249,7 +3243,7 @@
       <c r="N47" s="12"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D48" s="24" t="s">
         <v>183</v>
       </c>
@@ -3264,7 +3258,7 @@
       <c r="N48" s="12"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D49" s="24" t="s">
         <v>83</v>
       </c>
@@ -3279,7 +3273,7 @@
       <c r="N49" s="12"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="4:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="24" t="s">
         <v>182</v>
       </c>
@@ -3294,7 +3288,7 @@
       <c r="N50" s="12"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D51" s="24" t="s">
         <v>181</v>
       </c>
@@ -3309,7 +3303,7 @@
       <c r="N51" s="12"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D52" s="24" t="s">
         <v>185</v>
       </c>
@@ -3324,7 +3318,7 @@
       <c r="N52" s="12"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D53" s="24" t="s">
         <v>186</v>
       </c>
@@ -3339,7 +3333,7 @@
       <c r="N53" s="12"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D54" s="24" t="s">
         <v>187</v>
       </c>
@@ -3354,7 +3348,7 @@
       <c r="N54" s="12"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D55" s="24" t="s">
         <v>188</v>
       </c>
@@ -3369,7 +3363,7 @@
       <c r="N55" s="12"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G56" s="17"/>
       <c r="H56" s="14"/>
       <c r="I56" s="12"/>
@@ -3379,7 +3373,7 @@
       <c r="N56" s="12"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G57" s="12"/>
       <c r="H57" s="14"/>
       <c r="I57" s="12"/>
@@ -3389,7 +3383,7 @@
       <c r="N57" s="12"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G58" s="12"/>
       <c r="H58" s="14"/>
       <c r="I58" s="12"/>
@@ -3399,7 +3393,7 @@
       <c r="N58" s="12"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G59" s="12"/>
       <c r="H59" s="14"/>
       <c r="I59" s="12"/>
@@ -3409,7 +3403,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G60" s="12"/>
       <c r="H60" s="14"/>
       <c r="I60" s="12"/>
@@ -3419,7 +3413,7 @@
       <c r="N60" s="12"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G61" s="12"/>
       <c r="H61" s="14"/>
       <c r="I61" s="12"/>
@@ -3429,7 +3423,7 @@
       <c r="N61" s="12"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G62" s="12"/>
       <c r="H62" s="14"/>
       <c r="I62" s="12"/>
@@ -3439,7 +3433,7 @@
       <c r="N62" s="12"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G63" s="12"/>
       <c r="H63" s="14"/>
       <c r="I63" s="12"/>
@@ -3449,7 +3443,7 @@
       <c r="N63" s="12"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G64" s="12"/>
       <c r="H64" s="14"/>
       <c r="I64" s="12"/>
@@ -3459,7 +3453,7 @@
       <c r="N64" s="12"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G65" s="12"/>
       <c r="H65" s="14"/>
       <c r="I65" s="12"/>
@@ -3469,7 +3463,7 @@
       <c r="N65" s="12"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G66" s="12"/>
       <c r="H66" s="14"/>
       <c r="I66" s="12"/>
@@ -3479,7 +3473,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G67" s="12"/>
       <c r="H67" s="14"/>
       <c r="I67" s="12"/>
@@ -3489,7 +3483,7 @@
       <c r="N67" s="12"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G68" s="12"/>
       <c r="H68" s="14"/>
       <c r="I68" s="12"/>
@@ -3499,7 +3493,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G69" s="12"/>
       <c r="H69" s="14"/>
       <c r="I69" s="12"/>
@@ -3509,7 +3503,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G70" s="12"/>
       <c r="H70" s="14"/>
       <c r="I70" s="12"/>
@@ -3519,7 +3513,7 @@
       <c r="N70" s="12"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G71" s="12"/>
       <c r="H71" s="14"/>
       <c r="I71" s="12"/>
@@ -3529,7 +3523,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G72" s="12"/>
       <c r="H72" s="14"/>
       <c r="I72" s="12"/>
@@ -3539,7 +3533,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G73" s="12"/>
       <c r="H73" s="14"/>
       <c r="I73" s="12"/>
@@ -3549,7 +3543,7 @@
       <c r="N73" s="12"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G74" s="12"/>
       <c r="H74" s="14"/>
       <c r="I74" s="12"/>
@@ -3559,7 +3553,7 @@
       <c r="N74" s="12"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G75" s="12"/>
       <c r="H75" s="14"/>
       <c r="I75" s="12"/>
@@ -3569,7 +3563,7 @@
       <c r="N75" s="12"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G76" s="12"/>
       <c r="H76" s="14"/>
       <c r="I76" s="12"/>
@@ -3579,10 +3573,10 @@
       <c r="N76" s="12"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:15" x14ac:dyDescent="0.25">
       <c r="O77" s="2"/>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="12"/>
@@ -3591,7 +3585,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="12"/>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="G96" s="14"/>
@@ -3602,7 +3596,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="G97" s="14"/>
@@ -3613,7 +3607,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="12"/>
@@ -3622,7 +3616,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="12"/>
     </row>
-    <row r="99" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="12"/>
@@ -3631,7 +3625,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="12"/>
     </row>
-    <row r="100" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="12"/>
@@ -3640,7 +3634,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="12"/>
     </row>
-    <row r="101" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G101" s="12"/>
       <c r="H101" s="14"/>
       <c r="I101" s="12"/>
@@ -3649,7 +3643,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="12"/>
     </row>
-    <row r="102" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G102" s="12"/>
       <c r="H102" s="14"/>
       <c r="I102" s="12"/>
@@ -3658,7 +3652,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="12"/>
     </row>
-    <row r="103" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G103" s="12"/>
       <c r="H103" s="14"/>
       <c r="I103" s="12"/>
@@ -3667,7 +3661,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="12"/>
     </row>
-    <row r="104" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G104" s="12"/>
       <c r="H104" s="14"/>
       <c r="I104" s="12"/>
@@ -3676,7 +3670,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="12"/>
     </row>
-    <row r="105" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G105" s="12"/>
       <c r="H105" s="14"/>
       <c r="I105" s="12"/>
@@ -3685,7 +3679,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="12"/>
     </row>
-    <row r="106" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G106" s="12"/>
       <c r="H106" s="14"/>
       <c r="I106" s="12"/>
@@ -3694,7 +3688,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="12"/>
     </row>
-    <row r="107" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G107" s="12"/>
       <c r="H107" s="14"/>
       <c r="I107" s="12"/>
@@ -3703,7 +3697,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="12"/>
     </row>
-    <row r="108" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G108" s="12"/>
       <c r="H108" s="14"/>
       <c r="I108" s="12"/>
@@ -3712,7 +3706,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="12"/>
     </row>
-    <row r="109" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G109" s="12"/>
       <c r="H109" s="14"/>
       <c r="I109" s="12"/>
@@ -3721,7 +3715,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="12"/>
     </row>
-    <row r="110" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G110" s="12"/>
       <c r="H110" s="14"/>
       <c r="I110" s="12"/>
@@ -3730,7 +3724,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="12"/>
     </row>
-    <row r="111" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G111" s="12"/>
       <c r="H111" s="14"/>
       <c r="I111" s="12"/>
@@ -3739,7 +3733,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="12"/>
     </row>
-    <row r="112" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
       <c r="G112" s="12"/>
       <c r="H112" s="14"/>
       <c r="I112" s="12"/>
@@ -3748,7 +3742,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="12"/>
     </row>
-    <row r="113" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G113" s="12"/>
       <c r="H113" s="14"/>
       <c r="I113" s="12"/>
@@ -3757,7 +3751,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="12"/>
     </row>
-    <row r="114" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G114" s="12"/>
       <c r="H114" s="14"/>
       <c r="I114" s="12"/>
@@ -3766,7 +3760,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="12"/>
     </row>
-    <row r="115" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G115" s="12"/>
       <c r="H115" s="14"/>
       <c r="I115" s="12"/>
@@ -3775,7 +3769,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="12"/>
     </row>
-    <row r="116" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G116" s="12"/>
       <c r="H116" s="14"/>
       <c r="I116" s="12"/>
@@ -3784,7 +3778,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="12"/>
     </row>
-    <row r="117" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G117" s="12"/>
       <c r="H117" s="14"/>
       <c r="I117" s="12"/>
@@ -3793,7 +3787,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="12"/>
     </row>
-    <row r="118" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G118" s="12"/>
       <c r="H118" s="14"/>
       <c r="I118" s="12"/>
@@ -3802,7 +3796,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="12"/>
     </row>
-    <row r="119" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G119" s="12"/>
       <c r="H119" s="14"/>
       <c r="I119" s="12"/>
@@ -3811,7 +3805,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="12"/>
     </row>
-    <row r="120" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G120" s="12"/>
       <c r="H120" s="14"/>
       <c r="I120" s="12"/>
@@ -3820,7 +3814,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="12"/>
     </row>
-    <row r="121" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G121" s="12"/>
       <c r="H121" s="14"/>
       <c r="I121" s="12"/>
@@ -3829,7 +3823,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="12"/>
     </row>
-    <row r="122" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G122" s="12"/>
       <c r="H122" s="14"/>
       <c r="I122" s="12"/>
@@ -3838,7 +3832,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="12"/>
     </row>
-    <row r="123" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G123" s="12"/>
       <c r="H123" s="14"/>
       <c r="I123" s="12"/>
@@ -3847,7 +3841,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="12"/>
     </row>
-    <row r="124" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G124" s="12"/>
       <c r="H124" s="14"/>
       <c r="I124" s="12"/>
@@ -3856,7 +3850,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="12"/>
     </row>
-    <row r="125" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G125" s="12"/>
       <c r="H125" s="14"/>
       <c r="I125" s="12"/>
@@ -3865,7 +3859,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="12"/>
     </row>
-    <row r="126" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G126" s="12"/>
       <c r="H126" s="14"/>
       <c r="I126" s="12"/>
@@ -3874,7 +3868,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="12"/>
     </row>
-    <row r="127" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G127" s="12"/>
       <c r="H127" s="14"/>
       <c r="I127" s="12"/>
@@ -3883,7 +3877,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="12"/>
     </row>
-    <row r="128" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G128" s="12"/>
       <c r="H128" s="14"/>
       <c r="I128" s="12"/>
@@ -3892,7 +3886,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="12"/>
     </row>
-    <row r="129" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G129" s="12"/>
       <c r="H129" s="14"/>
       <c r="I129" s="12"/>
@@ -3901,7 +3895,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="12"/>
     </row>
-    <row r="130" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G130" s="12"/>
       <c r="H130" s="14"/>
       <c r="I130" s="12"/>
@@ -3910,7 +3904,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="12"/>
     </row>
-    <row r="131" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G131" s="12"/>
       <c r="H131" s="14"/>
       <c r="I131" s="12"/>
@@ -3919,7 +3913,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="12"/>
     </row>
-    <row r="132" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G132" s="12"/>
       <c r="H132" s="14"/>
       <c r="I132" s="12"/>
@@ -3928,7 +3922,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="12"/>
     </row>
-    <row r="133" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G133" s="12"/>
       <c r="H133" s="14"/>
       <c r="I133" s="12"/>
@@ -3937,7 +3931,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="12"/>
     </row>
-    <row r="134" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G134" s="12"/>
       <c r="H134" s="14"/>
       <c r="I134" s="12"/>
@@ -3946,7 +3940,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="12"/>
     </row>
-    <row r="135" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G135" s="12"/>
       <c r="H135" s="14"/>
       <c r="I135" s="12"/>
@@ -3955,7 +3949,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="12"/>
     </row>
-    <row r="136" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G136" s="12"/>
       <c r="H136" s="14"/>
       <c r="I136" s="12"/>
@@ -3964,7 +3958,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="12"/>
     </row>
-    <row r="137" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G137" s="12"/>
       <c r="H137" s="14"/>
       <c r="I137" s="12"/>
@@ -3973,7 +3967,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="12"/>
     </row>
-    <row r="138" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G138" s="12"/>
       <c r="H138" s="14"/>
       <c r="I138" s="12"/>
@@ -3982,7 +3976,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="12"/>
     </row>
-    <row r="139" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G139" s="12"/>
       <c r="H139" s="14"/>
       <c r="I139" s="12"/>
@@ -3991,7 +3985,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="12"/>
     </row>
-    <row r="140" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G140" s="12"/>
       <c r="H140" s="14"/>
       <c r="I140" s="12"/>
@@ -4000,7 +3994,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="12"/>
     </row>
-    <row r="141" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G141" s="12"/>
       <c r="H141" s="14"/>
       <c r="I141" s="12"/>
@@ -4009,7 +4003,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="12"/>
     </row>
-    <row r="142" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G142" s="12"/>
       <c r="H142" s="14"/>
       <c r="I142" s="12"/>
@@ -4018,7 +4012,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="12"/>
     </row>
-    <row r="143" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G143" s="12"/>
       <c r="H143" s="14"/>
       <c r="I143" s="12"/>
@@ -4027,7 +4021,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="12"/>
     </row>
-    <row r="144" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G144" s="12"/>
       <c r="H144" s="14"/>
       <c r="I144" s="12"/>
@@ -4036,7 +4030,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="12"/>
     </row>
-    <row r="145" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G145" s="12"/>
       <c r="H145" s="14"/>
       <c r="I145" s="12"/>
@@ -4045,7 +4039,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="12"/>
     </row>
-    <row r="146" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G146" s="12"/>
       <c r="H146" s="14"/>
       <c r="I146" s="12"/>
@@ -4054,7 +4048,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="12"/>
     </row>
-    <row r="147" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G147" s="12"/>
       <c r="H147" s="14"/>
       <c r="I147" s="12"/>
@@ -4063,7 +4057,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="12"/>
     </row>
-    <row r="148" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G148" s="12"/>
       <c r="H148" s="14"/>
       <c r="I148" s="12"/>
@@ -4079,14 +4073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
@@ -4219,16 +4213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -4761,37 +4755,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="K2" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="O2" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="M2" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B2" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="I2" r:id="rId6"/>
+    <hyperlink ref="J2" r:id="rId7"/>
+    <hyperlink ref="K2" r:id="rId8"/>
+    <hyperlink ref="O2" r:id="rId9"/>
+    <hyperlink ref="M2" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="27" t="s">
         <v>108</v>
       </c>
@@ -4801,7 +4795,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4845,7 +4839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
@@ -4883,7 +4877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4933,7 +4927,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4989,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5045,7 +5039,7 @@
         <v>3.4624999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5101,7 +5095,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5151,7 +5145,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5201,7 +5195,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5251,7 +5245,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5310,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5369,7 +5363,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5428,7 +5422,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5487,7 +5481,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>A4</f>
         <v>m01</v>
@@ -5588,7 +5582,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ref="A17:A39" si="7">A5</f>
         <v>m02</v>
@@ -5639,7 +5633,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="7"/>
         <v>m03</v>
@@ -5690,7 +5684,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="7"/>
         <v>m04</v>
@@ -5741,7 +5735,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="7"/>
         <v>m05</v>
@@ -5792,7 +5786,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="7"/>
         <v>m06</v>
@@ -5843,7 +5837,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="7"/>
         <v>m07</v>
@@ -5894,7 +5888,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="7"/>
         <v>m08</v>
@@ -5945,7 +5939,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="7"/>
         <v>m09</v>
@@ -5996,7 +5990,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="7"/>
         <v>m10</v>
@@ -6047,7 +6041,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="7"/>
         <v>m11</v>
@@ -6098,7 +6092,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="7"/>
         <v>m12</v>
@@ -6149,7 +6143,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="7"/>
         <v>m01</v>
@@ -6200,7 +6194,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="7"/>
         <v>m02</v>
@@ -6251,7 +6245,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="7"/>
         <v>m03</v>
@@ -6302,7 +6296,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="7"/>
         <v>m04</v>
@@ -6353,7 +6347,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="7"/>
         <v>m05</v>
@@ -6404,7 +6398,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="7"/>
         <v>m06</v>
@@ -6455,7 +6449,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="7"/>
         <v>m07</v>
@@ -6506,7 +6500,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="7"/>
         <v>m08</v>
@@ -6557,7 +6551,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="7"/>
         <v>m09</v>
@@ -6608,7 +6602,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="7"/>
         <v>m10</v>
@@ -6659,7 +6653,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="7"/>
         <v>m11</v>
@@ -6710,7 +6704,7 @@
         <v>9.8928571428571423</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="7"/>
         <v>m12</v>
@@ -6771,19 +6765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10:P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -6797,7 +6791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -6818,7 +6812,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -6839,7 +6833,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -6857,7 +6851,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -6878,7 +6872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -6899,7 +6893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -6917,7 +6911,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -6934,7 +6928,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -6951,7 +6945,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -7017,7 +7011,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -7043,7 +7037,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -7069,7 +7063,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7086,7 +7080,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -7103,7 +7097,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -7137,7 +7131,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -7154,7 +7148,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -7171,7 +7165,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -7188,7 +7182,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -7205,7 +7199,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -7222,7 +7216,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -7239,7 +7233,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -7256,7 +7250,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -7273,7 +7267,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -7290,7 +7284,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -7307,7 +7301,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -7324,7 +7318,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -7341,7 +7335,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -7358,7 +7352,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -7375,7 +7369,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -7409,7 +7403,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -7426,7 +7420,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -7443,7 +7437,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -7460,7 +7454,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -7477,7 +7471,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -7495,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -7513,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -7531,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -7549,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -7567,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -7585,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -7602,7 +7596,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>165</v>
       </c>
@@ -7619,7 +7613,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -7636,7 +7630,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -7653,7 +7647,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -7670,7 +7664,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -7687,7 +7681,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -7704,7 +7698,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -7721,7 +7715,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -7738,7 +7732,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -7755,7 +7749,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -7772,7 +7766,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -7789,7 +7783,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -7806,7 +7800,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -7823,7 +7817,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -7840,7 +7834,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -7857,7 +7851,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -7874,7 +7868,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -7891,7 +7885,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -7908,7 +7902,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -7925,7 +7919,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -7942,7 +7936,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -7959,7 +7953,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -7976,7 +7970,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -7993,7 +7987,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -8010,7 +8004,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -8027,7 +8021,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -8044,7 +8038,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -8061,7 +8055,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -8078,7 +8072,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -8095,7 +8089,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -8113,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -8131,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -8149,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>171</v>
       </c>
@@ -8167,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>171</v>
       </c>
@@ -8185,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -8203,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -8220,7 +8214,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -8237,7 +8231,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -8254,7 +8248,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -8271,7 +8265,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -8288,7 +8282,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -8305,7 +8299,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -8322,7 +8316,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -8339,7 +8333,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -8356,7 +8350,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -8373,7 +8367,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>171</v>
       </c>
@@ -8390,7 +8384,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -8407,7 +8401,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -8424,7 +8418,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -8441,7 +8435,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -8458,7 +8452,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -8475,7 +8469,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -8492,7 +8486,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -8509,7 +8503,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -8526,7 +8520,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -8543,7 +8537,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -8560,7 +8554,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -8577,7 +8571,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -8594,7 +8588,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>171</v>
       </c>
@@ -8611,7 +8605,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -8628,7 +8622,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>171</v>
       </c>
@@ -8645,7 +8639,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>171</v>
       </c>
@@ -8662,7 +8656,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>171</v>
       </c>
@@ -8679,7 +8673,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>171</v>
       </c>
@@ -8696,7 +8690,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>171</v>
       </c>
@@ -8713,7 +8707,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -8731,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -8749,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -8767,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>172</v>
       </c>
@@ -8785,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -8803,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>172</v>
       </c>
@@ -8821,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -8838,7 +8832,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -8855,7 +8849,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>172</v>
       </c>
@@ -8872,7 +8866,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -8889,7 +8883,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -8906,7 +8900,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -8923,7 +8917,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -8940,7 +8934,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>172</v>
       </c>
@@ -8957,7 +8951,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>172</v>
       </c>
@@ -8974,7 +8968,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>172</v>
       </c>
@@ -8991,7 +8985,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -9008,7 +9002,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -9025,7 +9019,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>172</v>
       </c>
@@ -9042,7 +9036,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -9059,7 +9053,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>172</v>
       </c>
@@ -9076,7 +9070,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>172</v>
       </c>
@@ -9093,7 +9087,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>172</v>
       </c>
@@ -9110,7 +9104,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -9127,7 +9121,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>172</v>
       </c>
@@ -9144,7 +9138,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>172</v>
       </c>
@@ -9161,7 +9155,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -9178,7 +9172,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -9195,7 +9189,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>172</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -9229,7 +9223,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -9246,7 +9240,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -9263,7 +9257,7 @@
         <v>5600.0000000000009</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>172</v>
       </c>
@@ -9280,7 +9274,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -9297,7 +9291,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>172</v>
       </c>
@@ -9314,7 +9308,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -9338,20 +9332,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>90</v>
       </c>
@@ -9371,7 +9365,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -9391,7 +9385,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -9415,7 +9409,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -9450,7 +9444,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -9482,7 +9476,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -9495,7 +9489,7 @@
         <v>122004</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -9508,7 +9502,7 @@
         <v>122004</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -9519,7 +9513,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -9530,7 +9524,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -9549,7 +9543,7 @@
         <v>135560</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -9568,7 +9562,7 @@
         <v>135560</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>135560</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -9606,7 +9600,7 @@
         <v>135560</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -9617,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -9628,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -9641,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -9656,7 +9650,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -9669,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -9682,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -9693,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -9722,7 +9716,7 @@
       </c>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -9735,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -9748,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -9761,10 +9755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
@@ -9802,7 +9796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -9847,16 +9841,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10091,14 +10085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4216,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -6768,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N10" sqref="N10:P13"/>
     </sheetView>
   </sheetViews>
@@ -9335,7 +9335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -1015,7 +1015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6768,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N10" sqref="N10:P13"/>
     </sheetView>
   </sheetViews>

--- a/dairyclimatemodel2/data/model_data.xlsx
+++ b/dairyclimatemodel2/data/model_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="898" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="7" r:id="rId1"/>
@@ -4216,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -6768,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N10" sqref="N10:P13"/>
     </sheetView>
   </sheetViews>
@@ -9335,7 +9335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
